--- a/DOCUMENTATION/sources/SOURCE MASTER.xlsx
+++ b/DOCUMENTATION/sources/SOURCE MASTER.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19226"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Samim\Google Drive\CDE\OPS-Dev\DOCUMENTATION\sources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="d:\Users\Samim\Google Drive\CDE\OPS-Dev\DOCUMENTATION\sources\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3F41FCA-70F1-4349-A3B8-8C9C74294D17}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14010" activeTab="5" xr2:uid="{C192451D-CC65-4AFB-B4B5-555589F134C0}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14010" activeTab="6" xr2:uid="{C192451D-CC65-4AFB-B4B5-555589F134C0}"/>
   </bookViews>
   <sheets>
     <sheet name="ADDRESS MASTER" sheetId="1" r:id="rId1"/>
@@ -18,9 +19,10 @@
     <sheet name="STATES" sheetId="2" r:id="rId4"/>
     <sheet name="COUNTRIES" sheetId="3" r:id="rId5"/>
     <sheet name="WORK STATUS" sheetId="6" r:id="rId6"/>
-    <sheet name="WORK TAGS" sheetId="7" r:id="rId7"/>
+    <sheet name="COMMON ENG MILESTONES" sheetId="8" r:id="rId7"/>
+    <sheet name="WORK TAGS" sheetId="7" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1408" uniqueCount="1097">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1430" uniqueCount="1119">
   <si>
     <t>FL</t>
   </si>
@@ -3321,6 +3323,72 @@
   </si>
   <si>
     <t>Cancelled</t>
+  </si>
+  <si>
+    <t>30% Design Review</t>
+  </si>
+  <si>
+    <t>30% QC Review</t>
+  </si>
+  <si>
+    <t>30% Design Stop</t>
+  </si>
+  <si>
+    <t>45% Design Review</t>
+  </si>
+  <si>
+    <t>45% QC Review</t>
+  </si>
+  <si>
+    <t>45% Design Stop</t>
+  </si>
+  <si>
+    <t>50% Design Review</t>
+  </si>
+  <si>
+    <t>50% QC Review</t>
+  </si>
+  <si>
+    <t>50% Design Stop</t>
+  </si>
+  <si>
+    <t>60% Design Review</t>
+  </si>
+  <si>
+    <t>60% QC Review</t>
+  </si>
+  <si>
+    <t>60% Design Stop</t>
+  </si>
+  <si>
+    <t>90% Design Review</t>
+  </si>
+  <si>
+    <t>90% QC Review</t>
+  </si>
+  <si>
+    <t>90% Design Stop</t>
+  </si>
+  <si>
+    <t>100% Design Review</t>
+  </si>
+  <si>
+    <t>100% QC Review</t>
+  </si>
+  <si>
+    <t>100% Design Stop</t>
+  </si>
+  <si>
+    <t>Final Design Review</t>
+  </si>
+  <si>
+    <t>Final QC Review</t>
+  </si>
+  <si>
+    <t>Project Turnover</t>
+  </si>
+  <si>
+    <t>Closeout Documents Due</t>
   </si>
 </sst>
 </file>
@@ -3396,7 +3464,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3412,6 +3480,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -11540,7 +11609,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{115AD66B-4961-4691-BE93-308AFE7E86D5}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -11597,6 +11666,200 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AF94113-C33C-481F-A4DB-7817BCDE2E99}">
+  <dimension ref="A1:B22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="25.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>12</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>13</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>14</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>15</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>16</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>17</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>18</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>19</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>20</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>21</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>22</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7362C1D8-859A-44E0-A006-09171CBFD118}">
   <dimension ref="A1:B16"/>
   <sheetViews>

--- a/DOCUMENTATION/sources/SOURCE MASTER.xlsx
+++ b/DOCUMENTATION/sources/SOURCE MASTER.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="d:\Users\Samim\Google Drive\CDE\OPS-Dev\DOCUMENTATION\sources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3F41FCA-70F1-4349-A3B8-8C9C74294D17}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C69326F6-2DC6-42E1-AAAC-9730FB13075C}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14010" activeTab="6" xr2:uid="{C192451D-CC65-4AFB-B4B5-555589F134C0}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14010" tabRatio="812" firstSheet="1" activeTab="8" xr2:uid="{C192451D-CC65-4AFB-B4B5-555589F134C0}"/>
   </bookViews>
   <sheets>
     <sheet name="ADDRESS MASTER" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,9 @@
     <sheet name="COUNTRIES" sheetId="3" r:id="rId5"/>
     <sheet name="WORK STATUS" sheetId="6" r:id="rId6"/>
     <sheet name="COMMON ENG MILESTONES" sheetId="8" r:id="rId7"/>
-    <sheet name="WORK TAGS" sheetId="7" r:id="rId8"/>
+    <sheet name="COMMON CONS MILESTONES" sheetId="9" r:id="rId8"/>
+    <sheet name="COMMON ROLES" sheetId="10" r:id="rId9"/>
+    <sheet name="WORK TAGS" sheetId="7" r:id="rId10"/>
   </sheets>
   <calcPr calcId="179017"/>
   <extLst>
@@ -32,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1430" uniqueCount="1119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1454" uniqueCount="1143">
   <si>
     <t>FL</t>
   </si>
@@ -3389,6 +3391,78 @@
   </si>
   <si>
     <t>Closeout Documents Due</t>
+  </si>
+  <si>
+    <t>Date Contract Issued</t>
+  </si>
+  <si>
+    <t>Submittals Due</t>
+  </si>
+  <si>
+    <t>Long Lead Items Due</t>
+  </si>
+  <si>
+    <t>NTP Issued</t>
+  </si>
+  <si>
+    <t>SOV Due</t>
+  </si>
+  <si>
+    <t>Schedule Due</t>
+  </si>
+  <si>
+    <t>Closeout Date</t>
+  </si>
+  <si>
+    <t>Completion Date</t>
+  </si>
+  <si>
+    <t>Contract Modification</t>
+  </si>
+  <si>
+    <t>Project Manager</t>
+  </si>
+  <si>
+    <t>Construction Manager</t>
+  </si>
+  <si>
+    <t>Sr. Structural Engineer</t>
+  </si>
+  <si>
+    <t>Structrural Engineer</t>
+  </si>
+  <si>
+    <t>Sr. Mechanical Engineer</t>
+  </si>
+  <si>
+    <t>Mechanical Engineer</t>
+  </si>
+  <si>
+    <t>Sr. Electrical Engineer</t>
+  </si>
+  <si>
+    <t>Electrical Engineer</t>
+  </si>
+  <si>
+    <t>Sr. Plumbing Engineer</t>
+  </si>
+  <si>
+    <t>Plumbing Engineer</t>
+  </si>
+  <si>
+    <t>LEED Manager</t>
+  </si>
+  <si>
+    <t>Commissioning Professional</t>
+  </si>
+  <si>
+    <t>Project Administrator</t>
+  </si>
+  <si>
+    <t>Site Superintendant</t>
+  </si>
+  <si>
+    <t>Construction Project Administrator</t>
   </si>
 </sst>
 </file>
@@ -4076,6 +4150,167 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7362C1D8-859A-44E0-A006-09171CBFD118}">
+  <dimension ref="A1:B16"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17:XFD22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="16.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <f>A1+1</f>
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <f t="shared" ref="A3:A16" si="0">A2+1</f>
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1095</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AB12EF6-E49C-4546-800D-5578467236B3}">
   <dimension ref="A1:C69"/>
@@ -11669,7 +11904,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AF94113-C33C-481F-A4DB-7817BCDE2E99}">
   <dimension ref="A1:B22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
@@ -11860,16 +12095,16 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7362C1D8-859A-44E0-A006-09171CBFD118}">
-  <dimension ref="A1:B16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78077B1F-C209-4361-AE11-030EC605A424}">
+  <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:XFD22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -11877,7 +12112,7 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>1080</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -11886,16 +12121,16 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>1081</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
-        <f t="shared" ref="A3:A16" si="0">A2+1</f>
+        <f t="shared" ref="A3:A8" si="0">A2+1</f>
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>1082</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -11904,7 +12139,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>1083</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -11913,7 +12148,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>1084</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -11922,7 +12157,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>1085</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -11931,7 +12166,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>1086</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -11940,25 +12175,115 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>1087</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9">
-        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>1088</v>
+        <v>1127</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEE8B5B9-BE9E-4481-8D85-606075B2BF0E}">
+  <dimension ref="A1:B15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="26.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1131</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1133</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <f>A8+1</f>
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1136</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="A10:A15" si="0">A9+1</f>
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>1089</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -11967,7 +12292,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>1090</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -11976,7 +12301,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>1091</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -11985,7 +12310,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>1092</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -11994,7 +12319,7 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>1093</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -12003,16 +12328,7 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>1094</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="B16" t="s">
-        <v>1095</v>
+        <v>1142</v>
       </c>
     </row>
   </sheetData>

--- a/DOCUMENTATION/sources/SOURCE MASTER.xlsx
+++ b/DOCUMENTATION/sources/SOURCE MASTER.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="d:\Users\Samim\Google Drive\CDE\OPS-Dev\DOCUMENTATION\sources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C69326F6-2DC6-42E1-AAAC-9730FB13075C}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DF3E9D5-2552-451D-9C94-CC1017273081}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14010" tabRatio="812" firstSheet="1" activeTab="8" xr2:uid="{C192451D-CC65-4AFB-B4B5-555589F134C0}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14010" tabRatio="812" firstSheet="3" activeTab="8" xr2:uid="{C192451D-CC65-4AFB-B4B5-555589F134C0}"/>
   </bookViews>
   <sheets>
     <sheet name="ADDRESS MASTER" sheetId="1" r:id="rId1"/>
@@ -20,9 +20,11 @@
     <sheet name="COUNTRIES" sheetId="3" r:id="rId5"/>
     <sheet name="WORK STATUS" sheetId="6" r:id="rId6"/>
     <sheet name="COMMON ENG MILESTONES" sheetId="8" r:id="rId7"/>
-    <sheet name="COMMON CONS MILESTONES" sheetId="9" r:id="rId8"/>
-    <sheet name="COMMON ROLES" sheetId="10" r:id="rId9"/>
-    <sheet name="WORK TAGS" sheetId="7" r:id="rId10"/>
+    <sheet name="COMMON CS MILESTONES" sheetId="11" r:id="rId8"/>
+    <sheet name="COMMON SUBFRFI RESPONSES" sheetId="12" r:id="rId9"/>
+    <sheet name="COMMON CONS MILESTONES" sheetId="9" r:id="rId10"/>
+    <sheet name="COMMON ROLES" sheetId="10" r:id="rId11"/>
+    <sheet name="WORK TAGS" sheetId="7" r:id="rId12"/>
   </sheets>
   <calcPr calcId="179017"/>
   <extLst>
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1454" uniqueCount="1143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1575" uniqueCount="1257">
   <si>
     <t>FL</t>
   </si>
@@ -3327,72 +3329,6 @@
     <t>Cancelled</t>
   </si>
   <si>
-    <t>30% Design Review</t>
-  </si>
-  <si>
-    <t>30% QC Review</t>
-  </si>
-  <si>
-    <t>30% Design Stop</t>
-  </si>
-  <si>
-    <t>45% Design Review</t>
-  </si>
-  <si>
-    <t>45% QC Review</t>
-  </si>
-  <si>
-    <t>45% Design Stop</t>
-  </si>
-  <si>
-    <t>50% Design Review</t>
-  </si>
-  <si>
-    <t>50% QC Review</t>
-  </si>
-  <si>
-    <t>50% Design Stop</t>
-  </si>
-  <si>
-    <t>60% Design Review</t>
-  </si>
-  <si>
-    <t>60% QC Review</t>
-  </si>
-  <si>
-    <t>60% Design Stop</t>
-  </si>
-  <si>
-    <t>90% Design Review</t>
-  </si>
-  <si>
-    <t>90% QC Review</t>
-  </si>
-  <si>
-    <t>90% Design Stop</t>
-  </si>
-  <si>
-    <t>100% Design Review</t>
-  </si>
-  <si>
-    <t>100% QC Review</t>
-  </si>
-  <si>
-    <t>100% Design Stop</t>
-  </si>
-  <si>
-    <t>Final Design Review</t>
-  </si>
-  <si>
-    <t>Final QC Review</t>
-  </si>
-  <si>
-    <t>Project Turnover</t>
-  </si>
-  <si>
-    <t>Closeout Documents Due</t>
-  </si>
-  <si>
     <t>Date Contract Issued</t>
   </si>
   <si>
@@ -3463,6 +3399,414 @@
   </si>
   <si>
     <t>Construction Project Administrator</t>
+  </si>
+  <si>
+    <t>Notice to Proceed</t>
+  </si>
+  <si>
+    <t>15% Redlines Due</t>
+  </si>
+  <si>
+    <t>15% All stop for QC</t>
+  </si>
+  <si>
+    <t>15% QC Completion Date</t>
+  </si>
+  <si>
+    <t>15% Due to Client</t>
+  </si>
+  <si>
+    <t>15% Design Review Meeting</t>
+  </si>
+  <si>
+    <t>Schematic Redlines Due</t>
+  </si>
+  <si>
+    <t>Schematic All stop for QC</t>
+  </si>
+  <si>
+    <t>Schematic QC Completion Date</t>
+  </si>
+  <si>
+    <t>Schematic Due to Client</t>
+  </si>
+  <si>
+    <t>Schematic Design Review Meeting</t>
+  </si>
+  <si>
+    <t>30% Redlines Due</t>
+  </si>
+  <si>
+    <t>30% All stop for QC</t>
+  </si>
+  <si>
+    <t>30% QC Completion Date</t>
+  </si>
+  <si>
+    <t>30% Due to Client</t>
+  </si>
+  <si>
+    <t>30% Design Review Meeting</t>
+  </si>
+  <si>
+    <t>35% Redlines Due</t>
+  </si>
+  <si>
+    <t>35% All stop for QC</t>
+  </si>
+  <si>
+    <t>35% QC Completion Date</t>
+  </si>
+  <si>
+    <t>35% Due to Client</t>
+  </si>
+  <si>
+    <t>35% Design Review Meeting</t>
+  </si>
+  <si>
+    <t>40% Redlines Due</t>
+  </si>
+  <si>
+    <t>40% All stop for QC</t>
+  </si>
+  <si>
+    <t>40% QC Completion Date</t>
+  </si>
+  <si>
+    <t>40% Due to Client</t>
+  </si>
+  <si>
+    <t>40% Design Review Meeting</t>
+  </si>
+  <si>
+    <t>45% Redlines Due</t>
+  </si>
+  <si>
+    <t>45% All stop for QC</t>
+  </si>
+  <si>
+    <t>45% QC Completion Date</t>
+  </si>
+  <si>
+    <t>45% Due to Client</t>
+  </si>
+  <si>
+    <t>45% Design Review Meeting</t>
+  </si>
+  <si>
+    <t>50% Redlines Due</t>
+  </si>
+  <si>
+    <t>50% All stop for QC</t>
+  </si>
+  <si>
+    <t>50% QC Completion Date</t>
+  </si>
+  <si>
+    <t>50% Due to Client</t>
+  </si>
+  <si>
+    <t>50% Design Review Meeting</t>
+  </si>
+  <si>
+    <t>55% Redlines Due</t>
+  </si>
+  <si>
+    <t>55% All stop for QC</t>
+  </si>
+  <si>
+    <t>55% QC Completion Date</t>
+  </si>
+  <si>
+    <t>55% Due to Client</t>
+  </si>
+  <si>
+    <t>55% Design Review Meeting</t>
+  </si>
+  <si>
+    <t>60% Redlines Due</t>
+  </si>
+  <si>
+    <t>60% All stop for QC</t>
+  </si>
+  <si>
+    <t>60% QC Completion Date</t>
+  </si>
+  <si>
+    <t>60% Due to Client</t>
+  </si>
+  <si>
+    <t>60% Design Review Meeting</t>
+  </si>
+  <si>
+    <t>65% Redlines Due</t>
+  </si>
+  <si>
+    <t>65% All stop for QC</t>
+  </si>
+  <si>
+    <t>65% QC Completion Date</t>
+  </si>
+  <si>
+    <t>65% Due to Client</t>
+  </si>
+  <si>
+    <t>65% Design Review Meeting</t>
+  </si>
+  <si>
+    <t>70% Redlines Due</t>
+  </si>
+  <si>
+    <t>70% All stop for QC</t>
+  </si>
+  <si>
+    <t>70% QC Completion Date</t>
+  </si>
+  <si>
+    <t>70% Due to Client</t>
+  </si>
+  <si>
+    <t>70% Design Review Meeting</t>
+  </si>
+  <si>
+    <t>75% Redlines Due</t>
+  </si>
+  <si>
+    <t>75% All stop for QC</t>
+  </si>
+  <si>
+    <t>75% QC Completion Date</t>
+  </si>
+  <si>
+    <t>75% Due to Client</t>
+  </si>
+  <si>
+    <t>75% Design Review Meeting</t>
+  </si>
+  <si>
+    <t>80% Redlines Due</t>
+  </si>
+  <si>
+    <t>80% All stop for QC</t>
+  </si>
+  <si>
+    <t>80% QC Completion Date</t>
+  </si>
+  <si>
+    <t>80% Due to Client</t>
+  </si>
+  <si>
+    <t>80% Design Review Meeting</t>
+  </si>
+  <si>
+    <t>85% Redlines Due</t>
+  </si>
+  <si>
+    <t>85% All stop for QC</t>
+  </si>
+  <si>
+    <t>85% QC Completion Date</t>
+  </si>
+  <si>
+    <t>85% Due to Client</t>
+  </si>
+  <si>
+    <t>85% Design Review Meeting</t>
+  </si>
+  <si>
+    <t>90% Redlines Due</t>
+  </si>
+  <si>
+    <t>90% All stop for QC</t>
+  </si>
+  <si>
+    <t>90% QC Completion Date</t>
+  </si>
+  <si>
+    <t>90% Due to Client</t>
+  </si>
+  <si>
+    <t>90% Design Review Meeting</t>
+  </si>
+  <si>
+    <t>90% for Review Redlines Due</t>
+  </si>
+  <si>
+    <t>90% for Review All stop for QC</t>
+  </si>
+  <si>
+    <t>90% for Review QC Completion Date</t>
+  </si>
+  <si>
+    <t>90% for Review Due to Client</t>
+  </si>
+  <si>
+    <t>90% for Review Design Review Meeting</t>
+  </si>
+  <si>
+    <t>95% Redlines Due</t>
+  </si>
+  <si>
+    <t>95% All stop for QC</t>
+  </si>
+  <si>
+    <t>95% QC Completion Date</t>
+  </si>
+  <si>
+    <t>95% Due to Client</t>
+  </si>
+  <si>
+    <t>95% Design Review Meeting</t>
+  </si>
+  <si>
+    <t>100% Redlines Due</t>
+  </si>
+  <si>
+    <t>100% All stop for QC</t>
+  </si>
+  <si>
+    <t>100% QC Completion Date</t>
+  </si>
+  <si>
+    <t>100% Due to Client</t>
+  </si>
+  <si>
+    <t>100% Design Review Meeting</t>
+  </si>
+  <si>
+    <t>100% for Review Redlines Due</t>
+  </si>
+  <si>
+    <t>100% for Review All stop for QC</t>
+  </si>
+  <si>
+    <t>100% for Review QC Completion Date</t>
+  </si>
+  <si>
+    <t>100% for Review Due to Client</t>
+  </si>
+  <si>
+    <t>100% for Review Design Review Meeting</t>
+  </si>
+  <si>
+    <t>Bid Set Redlines Due</t>
+  </si>
+  <si>
+    <t>Bid Set All stop for QC</t>
+  </si>
+  <si>
+    <t>Bid Set QC Completion Date</t>
+  </si>
+  <si>
+    <t>Bid Set Due to Client</t>
+  </si>
+  <si>
+    <t>Bid Set Design Review Meeting</t>
+  </si>
+  <si>
+    <t>Permit Set Redlines Due</t>
+  </si>
+  <si>
+    <t>Permit Set All stop for QC</t>
+  </si>
+  <si>
+    <t>Permit Set QC Completion Date</t>
+  </si>
+  <si>
+    <t>Permit Set Due to Client</t>
+  </si>
+  <si>
+    <t>Permit Set Design Review Meeting</t>
+  </si>
+  <si>
+    <t>Final Redlines Due</t>
+  </si>
+  <si>
+    <t>Final All stop for QC</t>
+  </si>
+  <si>
+    <t>Final QC Completion Date</t>
+  </si>
+  <si>
+    <t>Final Due to Client</t>
+  </si>
+  <si>
+    <t>Final Design Review Meeting</t>
+  </si>
+  <si>
+    <t>Revision Redlines Due</t>
+  </si>
+  <si>
+    <t>Revision All stop for QC</t>
+  </si>
+  <si>
+    <t>Revision QC Completion Date</t>
+  </si>
+  <si>
+    <t>Revision Due to Client</t>
+  </si>
+  <si>
+    <t>Construction Services Started</t>
+  </si>
+  <si>
+    <t>Pre-Construction Meeting</t>
+  </si>
+  <si>
+    <t>Substantial Completion Final punch</t>
+  </si>
+  <si>
+    <t>As-Built Redlines Due</t>
+  </si>
+  <si>
+    <t>As-Built All stop for QC</t>
+  </si>
+  <si>
+    <t>As-Built QC Completion Date</t>
+  </si>
+  <si>
+    <t>As-Builts Due to Client</t>
+  </si>
+  <si>
+    <t>Project Closed</t>
+  </si>
+  <si>
+    <t>In Progress</t>
+  </si>
+  <si>
+    <t>Answered</t>
+  </si>
+  <si>
+    <t>Recalled</t>
+  </si>
+  <si>
+    <t>No Exception Taken</t>
+  </si>
+  <si>
+    <t>Rejected</t>
+  </si>
+  <si>
+    <t>Comments Attached</t>
+  </si>
+  <si>
+    <t>Note Markings</t>
+  </si>
+  <si>
+    <t>Submit Specified Item</t>
+  </si>
+  <si>
+    <t>Resubmit</t>
+  </si>
+  <si>
+    <t>Confirm in Writing</t>
+  </si>
+  <si>
+    <t>Respond in Days</t>
+  </si>
+  <si>
+    <t>Approved</t>
+  </si>
+  <si>
+    <t>Return for Correction and Resubmittal</t>
   </si>
 </sst>
 </file>
@@ -3538,7 +3882,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3554,7 +3898,15 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -4151,11 +4503,253 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78077B1F-C209-4361-AE11-030EC605A424}">
+  <dimension ref="A1:B9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="20.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <f>A1+1</f>
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <f t="shared" ref="A3:A8" si="0">A2+1</f>
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1105</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEE8B5B9-BE9E-4481-8D85-606075B2BF0E}">
+  <dimension ref="A1:B15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="26.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <f>A8+1</f>
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <f t="shared" ref="A10:A15" si="0">A9+1</f>
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7362C1D8-859A-44E0-A006-09171CBFD118}">
   <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:XFD22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11902,191 +12496,1280 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AF94113-C33C-481F-A4DB-7817BCDE2E99}">
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1:C115"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="H79" sqref="H79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="25.85546875" customWidth="1"/>
+    <col min="2" max="2" width="37.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="9">
         <v>1</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>1097</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2">
+        <v>1121</v>
+      </c>
+      <c r="C1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="9">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
-        <v>1098</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="B2" s="9" t="s">
+        <v>1122</v>
+      </c>
+      <c r="C2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="9">
         <v>3</v>
       </c>
-      <c r="B3" t="s">
-        <v>1099</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="B3" s="9" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="9">
         <v>4</v>
       </c>
-      <c r="B4" t="s">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="B4" s="10" t="s">
+        <v>1124</v>
+      </c>
+      <c r="C4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="9">
         <v>5</v>
       </c>
-      <c r="B5" t="s">
-        <v>1101</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="B5" s="10" t="s">
+        <v>1125</v>
+      </c>
+      <c r="C5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="9">
         <v>6</v>
       </c>
-      <c r="B6" t="s">
-        <v>1102</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="B6" s="10" t="s">
+        <v>1126</v>
+      </c>
+      <c r="C6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="9">
         <v>7</v>
       </c>
-      <c r="B7" t="s">
-        <v>1103</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8">
+      <c r="B7" s="9" t="s">
+        <v>1127</v>
+      </c>
+      <c r="C7">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="9">
         <v>8</v>
       </c>
-      <c r="B8" t="s">
-        <v>1104</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9">
+      <c r="B8" s="9" t="s">
+        <v>1128</v>
+      </c>
+      <c r="C8">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="9">
         <v>9</v>
       </c>
-      <c r="B9" t="s">
-        <v>1105</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10">
+      <c r="B9" s="10" t="s">
+        <v>1129</v>
+      </c>
+      <c r="C9">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="9">
         <v>10</v>
       </c>
-      <c r="B10" t="s">
-        <v>1106</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11">
+      <c r="B10" s="10" t="s">
+        <v>1130</v>
+      </c>
+      <c r="C10">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="9">
         <v>11</v>
       </c>
-      <c r="B11" t="s">
-        <v>1107</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12">
+      <c r="B11" s="10" t="s">
+        <v>1131</v>
+      </c>
+      <c r="C11">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="9">
         <v>12</v>
       </c>
-      <c r="B12" t="s">
-        <v>1108</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13">
+      <c r="B12" s="9" t="s">
+        <v>1132</v>
+      </c>
+      <c r="C12">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="9">
         <v>13</v>
       </c>
-      <c r="B13" t="s">
-        <v>1109</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14">
+      <c r="B13" s="9" t="s">
+        <v>1133</v>
+      </c>
+      <c r="C13">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="9">
         <v>14</v>
       </c>
-      <c r="B14" t="s">
-        <v>1110</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15">
+      <c r="B14" s="10" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C14">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="9">
         <v>15</v>
       </c>
-      <c r="B15" t="s">
-        <v>1111</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16">
+      <c r="B15" s="10" t="s">
+        <v>1135</v>
+      </c>
+      <c r="C15">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="9">
         <v>16</v>
       </c>
-      <c r="B16" t="s">
-        <v>1112</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17">
+      <c r="B16" s="10" t="s">
+        <v>1136</v>
+      </c>
+      <c r="C16">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="9">
         <v>17</v>
       </c>
-      <c r="B17" t="s">
-        <v>1113</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18">
+      <c r="B17" s="9" t="s">
+        <v>1137</v>
+      </c>
+      <c r="C17">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="9">
         <v>18</v>
       </c>
-      <c r="B18" t="s">
-        <v>1114</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19">
+      <c r="B18" s="9" t="s">
+        <v>1138</v>
+      </c>
+      <c r="C18">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="9">
         <v>19</v>
       </c>
-      <c r="B19" t="s">
-        <v>1115</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20">
+      <c r="B19" s="10" t="s">
+        <v>1139</v>
+      </c>
+      <c r="C19">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="9">
         <v>20</v>
       </c>
-      <c r="B20" t="s">
-        <v>1116</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21">
+      <c r="B20" s="10" t="s">
+        <v>1140</v>
+      </c>
+      <c r="C20">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="9">
         <v>21</v>
       </c>
-      <c r="B21" t="s">
-        <v>1117</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22">
+      <c r="B21" s="10" t="s">
+        <v>1141</v>
+      </c>
+      <c r="C21">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="9">
         <v>22</v>
       </c>
-      <c r="B22" t="s">
-        <v>1118</v>
+      <c r="B22" s="9" t="s">
+        <v>1142</v>
+      </c>
+      <c r="C22">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="9">
+        <v>23</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>1143</v>
+      </c>
+      <c r="C23">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="9">
+        <v>24</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>1144</v>
+      </c>
+      <c r="C24">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="9">
+        <v>25</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>1145</v>
+      </c>
+      <c r="C25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="9">
+        <v>26</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>1146</v>
+      </c>
+      <c r="C26">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="9">
+        <v>27</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>1147</v>
+      </c>
+      <c r="C27">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="9">
+        <v>28</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>1148</v>
+      </c>
+      <c r="C28">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="9">
+        <v>29</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>1149</v>
+      </c>
+      <c r="C29">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="9">
+        <v>30</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>1150</v>
+      </c>
+      <c r="C30">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="9">
+        <v>31</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>1151</v>
+      </c>
+      <c r="C31">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="9">
+        <v>32</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>1152</v>
+      </c>
+      <c r="C32">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="9">
+        <v>33</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>1153</v>
+      </c>
+      <c r="C33">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="9">
+        <v>34</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>1154</v>
+      </c>
+      <c r="C34">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="9">
+        <v>35</v>
+      </c>
+      <c r="B35" s="10" t="s">
+        <v>1155</v>
+      </c>
+      <c r="C35">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="9">
+        <v>36</v>
+      </c>
+      <c r="B36" s="10" t="s">
+        <v>1156</v>
+      </c>
+      <c r="C36">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="9">
+        <v>37</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>1157</v>
+      </c>
+      <c r="C37">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="9">
+        <v>38</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>1158</v>
+      </c>
+      <c r="C38">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="9">
+        <v>39</v>
+      </c>
+      <c r="B39" s="10" t="s">
+        <v>1159</v>
+      </c>
+      <c r="C39">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="9">
+        <v>40</v>
+      </c>
+      <c r="B40" s="10" t="s">
+        <v>1160</v>
+      </c>
+      <c r="C40">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="9">
+        <v>41</v>
+      </c>
+      <c r="B41" s="10" t="s">
+        <v>1161</v>
+      </c>
+      <c r="C41">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="9">
+        <v>42</v>
+      </c>
+      <c r="B42" s="9" t="s">
+        <v>1162</v>
+      </c>
+      <c r="C42">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="9">
+        <v>43</v>
+      </c>
+      <c r="B43" s="9" t="s">
+        <v>1163</v>
+      </c>
+      <c r="C43">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="9">
+        <v>44</v>
+      </c>
+      <c r="B44" s="10" t="s">
+        <v>1164</v>
+      </c>
+      <c r="C44">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="9">
+        <v>45</v>
+      </c>
+      <c r="B45" s="10" t="s">
+        <v>1165</v>
+      </c>
+      <c r="C45">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="9">
+        <v>46</v>
+      </c>
+      <c r="B46" s="10" t="s">
+        <v>1166</v>
+      </c>
+      <c r="C46">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="9">
+        <v>47</v>
+      </c>
+      <c r="B47" s="9" t="s">
+        <v>1167</v>
+      </c>
+      <c r="C47">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="9">
+        <v>48</v>
+      </c>
+      <c r="B48" s="9" t="s">
+        <v>1168</v>
+      </c>
+      <c r="C48">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="9">
+        <v>49</v>
+      </c>
+      <c r="B49" s="10" t="s">
+        <v>1169</v>
+      </c>
+      <c r="C49">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="9">
+        <v>50</v>
+      </c>
+      <c r="B50" s="10" t="s">
+        <v>1170</v>
+      </c>
+      <c r="C50">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="9">
+        <v>51</v>
+      </c>
+      <c r="B51" s="10" t="s">
+        <v>1171</v>
+      </c>
+      <c r="C51">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="9">
+        <v>52</v>
+      </c>
+      <c r="B52" s="9" t="s">
+        <v>1172</v>
+      </c>
+      <c r="C52">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="9">
+        <v>53</v>
+      </c>
+      <c r="B53" s="9" t="s">
+        <v>1173</v>
+      </c>
+      <c r="C53">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="9">
+        <v>54</v>
+      </c>
+      <c r="B54" s="10" t="s">
+        <v>1174</v>
+      </c>
+      <c r="C54">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="9">
+        <v>55</v>
+      </c>
+      <c r="B55" s="10" t="s">
+        <v>1175</v>
+      </c>
+      <c r="C55">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="9">
+        <v>56</v>
+      </c>
+      <c r="B56" s="10" t="s">
+        <v>1176</v>
+      </c>
+      <c r="C56">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="9">
+        <v>57</v>
+      </c>
+      <c r="B57" s="9" t="s">
+        <v>1177</v>
+      </c>
+      <c r="C57">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="9">
+        <v>58</v>
+      </c>
+      <c r="B58" s="9" t="s">
+        <v>1178</v>
+      </c>
+      <c r="C58">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="9">
+        <v>59</v>
+      </c>
+      <c r="B59" s="10" t="s">
+        <v>1179</v>
+      </c>
+      <c r="C59">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="9">
+        <v>60</v>
+      </c>
+      <c r="B60" s="10" t="s">
+        <v>1180</v>
+      </c>
+      <c r="C60">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="9">
+        <v>61</v>
+      </c>
+      <c r="B61" s="10" t="s">
+        <v>1181</v>
+      </c>
+      <c r="C61">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="9">
+        <v>62</v>
+      </c>
+      <c r="B62" s="9" t="s">
+        <v>1182</v>
+      </c>
+      <c r="C62">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="9">
+        <v>63</v>
+      </c>
+      <c r="B63" s="9" t="s">
+        <v>1183</v>
+      </c>
+      <c r="C63">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="9">
+        <v>64</v>
+      </c>
+      <c r="B64" s="10" t="s">
+        <v>1184</v>
+      </c>
+      <c r="C64">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="9">
+        <v>65</v>
+      </c>
+      <c r="B65" s="10" t="s">
+        <v>1185</v>
+      </c>
+      <c r="C65">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="9">
+        <v>66</v>
+      </c>
+      <c r="B66" s="10" t="s">
+        <v>1186</v>
+      </c>
+      <c r="C66">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="9">
+        <v>67</v>
+      </c>
+      <c r="B67" s="9" t="s">
+        <v>1187</v>
+      </c>
+      <c r="C67">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="9">
+        <v>68</v>
+      </c>
+      <c r="B68" s="9" t="s">
+        <v>1188</v>
+      </c>
+      <c r="C68">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="9">
+        <v>69</v>
+      </c>
+      <c r="B69" s="10" t="s">
+        <v>1189</v>
+      </c>
+      <c r="C69">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="9">
+        <v>70</v>
+      </c>
+      <c r="B70" s="10" t="s">
+        <v>1190</v>
+      </c>
+      <c r="C70">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="9">
+        <v>71</v>
+      </c>
+      <c r="B71" s="10" t="s">
+        <v>1191</v>
+      </c>
+      <c r="C71">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" s="9">
+        <v>72</v>
+      </c>
+      <c r="B72" s="9" t="s">
+        <v>1192</v>
+      </c>
+      <c r="C72">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="9">
+        <v>73</v>
+      </c>
+      <c r="B73" s="9" t="s">
+        <v>1193</v>
+      </c>
+      <c r="C73">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="9">
+        <v>74</v>
+      </c>
+      <c r="B74" s="10" t="s">
+        <v>1194</v>
+      </c>
+      <c r="C74">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" s="9">
+        <v>75</v>
+      </c>
+      <c r="B75" s="10" t="s">
+        <v>1195</v>
+      </c>
+      <c r="C75">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" s="9">
+        <v>76</v>
+      </c>
+      <c r="B76" s="10" t="s">
+        <v>1196</v>
+      </c>
+      <c r="C76">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" s="9">
+        <v>77</v>
+      </c>
+      <c r="B77" s="9" t="s">
+        <v>1197</v>
+      </c>
+      <c r="C77">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" s="9">
+        <v>78</v>
+      </c>
+      <c r="B78" s="9" t="s">
+        <v>1198</v>
+      </c>
+      <c r="C78">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" s="9">
+        <v>79</v>
+      </c>
+      <c r="B79" s="10" t="s">
+        <v>1199</v>
+      </c>
+      <c r="C79">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" s="9">
+        <v>80</v>
+      </c>
+      <c r="B80" s="10" t="s">
+        <v>1200</v>
+      </c>
+      <c r="C80">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" s="9">
+        <v>81</v>
+      </c>
+      <c r="B81" s="10" t="s">
+        <v>1201</v>
+      </c>
+      <c r="C81">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" s="9">
+        <v>82</v>
+      </c>
+      <c r="B82" s="9" t="s">
+        <v>1202</v>
+      </c>
+      <c r="C82">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" s="9">
+        <v>83</v>
+      </c>
+      <c r="B83" s="9" t="s">
+        <v>1203</v>
+      </c>
+      <c r="C83">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" s="9">
+        <v>84</v>
+      </c>
+      <c r="B84" s="10" t="s">
+        <v>1204</v>
+      </c>
+      <c r="C84">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" s="9">
+        <v>85</v>
+      </c>
+      <c r="B85" s="10" t="s">
+        <v>1205</v>
+      </c>
+      <c r="C85">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" s="9">
+        <v>86</v>
+      </c>
+      <c r="B86" s="10" t="s">
+        <v>1206</v>
+      </c>
+      <c r="C86">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" s="9">
+        <v>87</v>
+      </c>
+      <c r="B87" s="9" t="s">
+        <v>1207</v>
+      </c>
+      <c r="C87">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" s="9">
+        <v>88</v>
+      </c>
+      <c r="B88" s="9" t="s">
+        <v>1208</v>
+      </c>
+      <c r="C88">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" s="9">
+        <v>89</v>
+      </c>
+      <c r="B89" s="10" t="s">
+        <v>1209</v>
+      </c>
+      <c r="C89">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" s="9">
+        <v>90</v>
+      </c>
+      <c r="B90" s="10" t="s">
+        <v>1210</v>
+      </c>
+      <c r="C90">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" s="9">
+        <v>91</v>
+      </c>
+      <c r="B91" s="10" t="s">
+        <v>1211</v>
+      </c>
+      <c r="C91">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" s="9">
+        <v>92</v>
+      </c>
+      <c r="B92" s="9" t="s">
+        <v>1212</v>
+      </c>
+      <c r="C92">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" s="9">
+        <v>93</v>
+      </c>
+      <c r="B93" s="9" t="s">
+        <v>1213</v>
+      </c>
+      <c r="C93">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" s="9">
+        <v>94</v>
+      </c>
+      <c r="B94" s="10" t="s">
+        <v>1214</v>
+      </c>
+      <c r="C94">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" s="9">
+        <v>95</v>
+      </c>
+      <c r="B95" s="10" t="s">
+        <v>1215</v>
+      </c>
+      <c r="C95">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" s="9">
+        <v>96</v>
+      </c>
+      <c r="B96" s="10" t="s">
+        <v>1216</v>
+      </c>
+      <c r="C96">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" s="9">
+        <v>97</v>
+      </c>
+      <c r="B97" s="9" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C97">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" s="9">
+        <v>98</v>
+      </c>
+      <c r="B98" s="9" t="s">
+        <v>1218</v>
+      </c>
+      <c r="C98">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" s="9">
+        <v>99</v>
+      </c>
+      <c r="B99" s="10" t="s">
+        <v>1219</v>
+      </c>
+      <c r="C99">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" s="9">
+        <v>100</v>
+      </c>
+      <c r="B100" s="10" t="s">
+        <v>1220</v>
+      </c>
+      <c r="C100">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" s="9">
+        <v>101</v>
+      </c>
+      <c r="B101" s="10" t="s">
+        <v>1221</v>
+      </c>
+      <c r="C101">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" s="9">
+        <v>102</v>
+      </c>
+      <c r="B102" s="9" t="s">
+        <v>1222</v>
+      </c>
+      <c r="C102">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" s="9">
+        <v>103</v>
+      </c>
+      <c r="B103" s="9" t="s">
+        <v>1223</v>
+      </c>
+      <c r="C103">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" s="9">
+        <v>104</v>
+      </c>
+      <c r="B104" s="10" t="s">
+        <v>1224</v>
+      </c>
+      <c r="C104">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" s="9">
+        <v>105</v>
+      </c>
+      <c r="B105" s="10" t="s">
+        <v>1225</v>
+      </c>
+      <c r="C105">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" s="9">
+        <v>106</v>
+      </c>
+      <c r="B106" s="10" t="s">
+        <v>1226</v>
+      </c>
+      <c r="C106">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" s="9">
+        <v>107</v>
+      </c>
+      <c r="B107" s="9" t="s">
+        <v>1227</v>
+      </c>
+      <c r="C107">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" s="9">
+        <v>108</v>
+      </c>
+      <c r="B108" s="9" t="s">
+        <v>1228</v>
+      </c>
+      <c r="C108">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" s="9">
+        <v>109</v>
+      </c>
+      <c r="B109" s="10" t="s">
+        <v>1229</v>
+      </c>
+      <c r="C109">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" s="9">
+        <v>110</v>
+      </c>
+      <c r="B110" s="10" t="s">
+        <v>1230</v>
+      </c>
+      <c r="C110">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" s="9">
+        <v>111</v>
+      </c>
+      <c r="B111" s="10" t="s">
+        <v>1231</v>
+      </c>
+      <c r="C111">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" s="9">
+        <v>112</v>
+      </c>
+      <c r="B112" s="10" t="s">
+        <v>1232</v>
+      </c>
+      <c r="C112">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" s="9">
+        <v>113</v>
+      </c>
+      <c r="B113" s="10" t="s">
+        <v>1233</v>
+      </c>
+      <c r="C113">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" s="9">
+        <v>114</v>
+      </c>
+      <c r="B114" s="10" t="s">
+        <v>1234</v>
+      </c>
+      <c r="C114">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115" s="9">
+        <v>115</v>
+      </c>
+      <c r="B115" s="10" t="s">
+        <v>1235</v>
+      </c>
+      <c r="C115">
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -12095,95 +13778,148 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78077B1F-C209-4361-AE11-030EC605A424}">
-  <dimension ref="A1:B9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96271F05-5103-48B2-962C-C3DAC9083C4F}">
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="R16" sqref="R16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="9">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
-        <v>1119</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <f>A1+1</f>
+      <c r="B1" s="9" t="s">
+        <v>1236</v>
+      </c>
+      <c r="C1" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="9">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
-        <v>1120</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <f t="shared" ref="A3:A8" si="0">A2+1</f>
+      <c r="B2" s="9" t="s">
+        <v>1237</v>
+      </c>
+      <c r="C2" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="9">
         <v>3</v>
       </c>
-      <c r="B3" t="s">
-        <v>1121</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <f t="shared" si="0"/>
+      <c r="B3" s="10" t="s">
+        <v>1232</v>
+      </c>
+      <c r="C3" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="9">
         <v>4</v>
       </c>
-      <c r="B4" t="s">
-        <v>1122</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <f t="shared" si="0"/>
+      <c r="B4" s="10" t="s">
+        <v>1233</v>
+      </c>
+      <c r="C4" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="9">
         <v>5</v>
       </c>
-      <c r="B5" t="s">
-        <v>1123</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <f t="shared" si="0"/>
+      <c r="B5" s="10" t="s">
+        <v>1234</v>
+      </c>
+      <c r="C5" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="9">
         <v>6</v>
       </c>
-      <c r="B6" t="s">
-        <v>1124</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <f t="shared" si="0"/>
+      <c r="B6" s="10" t="s">
+        <v>1235</v>
+      </c>
+      <c r="C6" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="9">
         <v>7</v>
       </c>
-      <c r="B7" t="s">
-        <v>1125</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <f t="shared" si="0"/>
+      <c r="B7" s="10" t="s">
+        <v>1238</v>
+      </c>
+      <c r="C7" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="9">
         <v>8</v>
       </c>
-      <c r="B8" t="s">
-        <v>1126</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9">
+      <c r="B8" s="9" t="s">
+        <v>1239</v>
+      </c>
+      <c r="C8" s="11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="9">
         <v>9</v>
       </c>
-      <c r="B9" t="s">
-        <v>1127</v>
+      <c r="B9" s="9" t="s">
+        <v>1240</v>
+      </c>
+      <c r="C9" s="11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="9">
+        <v>10</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>1241</v>
+      </c>
+      <c r="C10" s="11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="9">
+        <v>11</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>1242</v>
+      </c>
+      <c r="C11" s="11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="9">
+        <v>12</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>1243</v>
+      </c>
+      <c r="C12" s="11">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -12192,143 +13928,192 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEE8B5B9-BE9E-4481-8D85-606075B2BF0E}">
-  <dimension ref="A1:B15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86A47155-BB39-41D4-8D10-604D840923A0}">
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="11">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
-        <v>1128</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="B1" s="11">
+        <v>1</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="11">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
-        <v>1129</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="B2" s="11">
+        <v>1</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="11">
         <v>3</v>
       </c>
-      <c r="B3" t="s">
-        <v>1130</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="B3" s="11">
+        <v>1</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>1246</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="11">
         <v>4</v>
       </c>
-      <c r="B4" t="s">
-        <v>1131</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="B4" s="11">
+        <v>2</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="11">
         <v>5</v>
       </c>
-      <c r="B5" t="s">
-        <v>1132</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="B5" s="11">
+        <v>2</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>1247</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="11">
         <v>6</v>
       </c>
-      <c r="B6" t="s">
-        <v>1133</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="B6" s="11">
+        <v>2</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>1248</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="11">
         <v>7</v>
       </c>
-      <c r="B7" t="s">
-        <v>1134</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8">
+      <c r="B7" s="11">
+        <v>2</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="11">
         <v>8</v>
       </c>
-      <c r="B8" t="s">
-        <v>1135</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <f>A8+1</f>
+      <c r="B8" s="11">
+        <v>2</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="11">
         <v>9</v>
       </c>
-      <c r="B9" t="s">
-        <v>1136</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <f t="shared" ref="A10:A15" si="0">A9+1</f>
+      <c r="B9" s="11">
+        <v>2</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="11">
         <v>10</v>
       </c>
-      <c r="B10" t="s">
-        <v>1137</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <f t="shared" si="0"/>
+      <c r="B10" s="11">
+        <v>2</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="11">
         <v>11</v>
       </c>
-      <c r="B11" t="s">
-        <v>1138</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <f t="shared" si="0"/>
+      <c r="B11" s="11">
+        <v>2</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>1253</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="11">
         <v>12</v>
       </c>
-      <c r="B12" t="s">
-        <v>1139</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <f t="shared" si="0"/>
+      <c r="B12" s="11">
+        <v>2</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>1254</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="11">
         <v>13</v>
       </c>
-      <c r="B13" t="s">
-        <v>1140</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <f t="shared" si="0"/>
+      <c r="B13" s="11">
+        <v>2</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>1246</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="11">
         <v>14</v>
       </c>
-      <c r="B14" t="s">
-        <v>1141</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <f t="shared" si="0"/>
+      <c r="B14" s="11">
+        <v>3</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="11">
         <v>15</v>
       </c>
-      <c r="B15" t="s">
-        <v>1142</v>
+      <c r="B15" s="11">
+        <v>3</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>1255</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="11">
+        <v>16</v>
+      </c>
+      <c r="B16" s="11">
+        <v>3</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>1256</v>
       </c>
     </row>
   </sheetData>

--- a/DOCUMENTATION/sources/SOURCE MASTER.xlsx
+++ b/DOCUMENTATION/sources/SOURCE MASTER.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="d:\Users\Samim\Google Drive\CDE\OPS-Dev\DOCUMENTATION\sources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DF3E9D5-2552-451D-9C94-CC1017273081}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B77D5875-9E36-40D5-86E0-580E6C456C1D}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14010" tabRatio="812" firstSheet="3" activeTab="8" xr2:uid="{C192451D-CC65-4AFB-B4B5-555589F134C0}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14010" tabRatio="812" firstSheet="3" activeTab="10" xr2:uid="{C192451D-CC65-4AFB-B4B5-555589F134C0}"/>
   </bookViews>
   <sheets>
     <sheet name="ADDRESS MASTER" sheetId="1" r:id="rId1"/>
@@ -26,17 +26,22 @@
     <sheet name="COMMON ROLES" sheetId="10" r:id="rId11"/>
     <sheet name="WORK TAGS" sheetId="7" r:id="rId12"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1575" uniqueCount="1257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1593" uniqueCount="1275">
   <si>
     <t>FL</t>
   </si>
@@ -3807,6 +3812,60 @@
   </si>
   <si>
     <t>Return for Correction and Resubmittal</t>
+  </si>
+  <si>
+    <t>Mechanical Consultant</t>
+  </si>
+  <si>
+    <t>Structural Consultant</t>
+  </si>
+  <si>
+    <t>Electrical Consultant</t>
+  </si>
+  <si>
+    <t>Plumbing Consultant</t>
+  </si>
+  <si>
+    <t>Sr. Architect</t>
+  </si>
+  <si>
+    <t>Architect</t>
+  </si>
+  <si>
+    <t>Architect Consultant</t>
+  </si>
+  <si>
+    <t>T&amp;B Consultant</t>
+  </si>
+  <si>
+    <t>Interior Designer</t>
+  </si>
+  <si>
+    <t>Landscape Architect</t>
+  </si>
+  <si>
+    <t>Threshold Inspector</t>
+  </si>
+  <si>
+    <t>Special Inspector</t>
+  </si>
+  <si>
+    <t>Permitting Agent</t>
+  </si>
+  <si>
+    <t>Sr. Civil Engineering</t>
+  </si>
+  <si>
+    <t>Civil Consultant</t>
+  </si>
+  <si>
+    <t>Civil Engineer</t>
+  </si>
+  <si>
+    <t>Speciality Consultant</t>
+  </si>
+  <si>
+    <t>General Contractor</t>
   </si>
 </sst>
 </file>
@@ -4601,10 +4660,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEE8B5B9-BE9E-4481-8D85-606075B2BF0E}">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B33" sqref="A1:B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4614,6 +4673,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1">
+        <f>1</f>
         <v>1</v>
       </c>
       <c r="B1" t="s">
@@ -4622,6 +4682,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
+        <f t="shared" ref="A2:A4" si="0">A1+1</f>
         <v>2</v>
       </c>
       <c r="B2" t="s">
@@ -4630,6 +4691,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="B3" t="s">
@@ -4638,6 +4700,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B4" t="s">
@@ -4646,34 +4709,38 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
+        <f>A4+1</f>
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>1110</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
+        <f t="shared" ref="A6:A33" si="1">A5+1</f>
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>1113</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -4682,61 +4749,223 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>1114</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10">
-        <f t="shared" ref="A10:A15" si="0">A9+1</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>1116</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>1117</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>1118</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>1119</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="B15" t="s">
+        <v>1261</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1263</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1270</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1272</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1271</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="B25" t="s">
         <v>1120</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
+      <c r="B26" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <f t="shared" si="1"/>
+        <v>27</v>
+      </c>
+      <c r="B27" t="s">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <f t="shared" si="1"/>
+        <v>28</v>
+      </c>
+      <c r="B28" t="s">
+        <v>1266</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <f t="shared" si="1"/>
+        <v>29</v>
+      </c>
+      <c r="B29" t="s">
+        <v>1267</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="B30" t="s">
+        <v>1268</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <f t="shared" si="1"/>
+        <v>31</v>
+      </c>
+      <c r="B31" t="s">
+        <v>1269</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <f t="shared" si="1"/>
+        <v>32</v>
+      </c>
+      <c r="B32" t="s">
+        <v>1273</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <f t="shared" si="1"/>
+        <v>33</v>
+      </c>
+      <c r="B33" t="s">
+        <v>1274</v>
       </c>
     </row>
   </sheetData>
@@ -13931,7 +14160,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86A47155-BB39-41D4-8D10-604D840923A0}">
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
